--- a/docs/mcode/shr-core-BodyWeight.xlsx
+++ b/docs/mcode/shr-core-BodyWeight.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$94</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3386" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="471">
   <si>
     <t>Path</t>
   </si>
@@ -204,19 +204,98 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.meta.extension</t>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://tools.ietf.org/html/bcp47</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
   </si>
   <si>
     <t>extensions
@@ -230,357 +309,199 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exists:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>precondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Precondition-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A description of the conditions or context of an observation, for example, under sedation, fasting or post-exercise. A qualifier cannot modify the measurement type; for example, a fasting blood sugar is still a blood sugar.</t>
+  </si>
+  <si>
+    <t>Observation.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Observation.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Precondition-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Observation.extension.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyWeightPreconditionVS</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Unique Id for this particular observation</t>
+  </si>
+  <si>
+    <t>A unique identifier for the simple observation instance.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>OBX.21</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.  This is used  for searching, sorting and display purposes.</t>
+  </si>
+  <si>
+    <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Observation.code.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.category.extension</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Observation.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Observation.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Observation.meta.security</t>
+    <t>Observation.category.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding {[]} {[]}
 </t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://tools.ietf.org/html/bcp47</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exists:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>precondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Precondition-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A description of the conditions or context of an observation, for example, under sedation, fasting or post-exercise. A qualifier cannot modify the measurement type; for example, a fasting blood sugar is still a blood sugar.</t>
-  </si>
-  <si>
-    <t>Observation.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Observation.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Precondition-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Observation.extension.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyWeightPreconditionVS</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Unique Id for this particular observation</t>
-  </si>
-  <si>
-    <t>A unique identifier for the simple observation instance.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>OBX.21</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.  This is used  for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Observation.code.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Observation.category.id</t>
-  </si>
-  <si>
-    <t>Observation.category.extension</t>
-  </si>
-  <si>
-    <t>Observation.category.coding</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -896,6 +817,10 @@
     <t>Observation.issued</t>
   </si>
   <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
     <t>Date/Time this was made available</t>
   </si>
   <si>
@@ -1115,7 +1040,7 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/QuantitativeResultInterpretationVS</t>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/QuantitativeResultInterpretationVS</t>
   </si>
   <si>
     <t>OBX-8</t>
@@ -1160,7 +1085,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>OBX-20</t>
@@ -1169,18 +1094,6 @@
     <t>targetSiteCode</t>
   </si>
   <si>
-    <t>Observation.bodySite.id</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.extension</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.text</t>
-  </si>
-  <si>
     <t>Observation.method</t>
   </si>
   <si>
@@ -1196,7 +1109,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyWeightMethodVS</t>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyWeightMethodVS</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1707,7 +1620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM105"/>
+  <dimension ref="A1:AM94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1739,8 +1652,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.6484375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="52.97265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.84375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -2201,21 +2114,23 @@
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>42</v>
@@ -2278,7 +2193,7 @@
         <v>42</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>42</v>
@@ -2286,18 +2201,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -2344,13 +2259,13 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>42</v>
@@ -2382,7 +2297,7 @@
         <v>42</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>42</v>
@@ -2390,11 +2305,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2410,19 +2325,19 @@
         <v>42</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2477,7 +2392,7 @@
       </c>
       <c r="AG7" s="2"/>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
@@ -2486,7 +2401,7 @@
         <v>42</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>42</v>
@@ -2494,18 +2409,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -2514,19 +2429,19 @@
         <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2590,7 +2505,7 @@
         <v>42</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>42</v>
@@ -2598,11 +2513,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2618,19 +2533,19 @@
         <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2668,16 +2583,14 @@
         <v>42</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
@@ -2694,7 +2607,7 @@
         <v>42</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>42</v>
@@ -2702,9 +2615,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2722,20 +2637,16 @@
         <v>42</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>87</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>42</v>
@@ -2760,13 +2671,13 @@
         <v>42</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>42</v>
@@ -2783,11 +2694,15 @@
       <c r="AD10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>42</v>
       </c>
@@ -2806,7 +2721,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2817,7 +2732,7 @@
         <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>42</v>
@@ -2826,20 +2741,18 @@
         <v>42</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>42</v>
@@ -2864,10 +2777,10 @@
         <v>42</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="s" s="2">
         <v>42</v>
@@ -2887,11 +2800,15 @@
       <c r="AD11" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2902,7 +2819,7 @@
         <v>42</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>42</v>
@@ -2910,7 +2827,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2921,29 +2838,27 @@
         <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>42</v>
@@ -2991,11 +2906,15 @@
       <c r="AD12" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE12" s="2"/>
+      <c r="AE12" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG12" s="2"/>
+      <c r="AG12" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH12" t="s" s="2">
         <v>42</v>
       </c>
@@ -3014,7 +2933,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3022,7 +2941,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>51</v>
@@ -3037,24 +2956,22 @@
         <v>42</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>42</v>
@@ -3072,13 +2989,13 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -3095,11 +3012,15 @@
       <c r="AD13" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE13" s="2"/>
+      <c r="AE13" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="AF13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG13" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH13" t="s" s="2">
         <v>42</v>
       </c>
@@ -3110,7 +3031,7 @@
         <v>42</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>42</v>
@@ -3118,15 +3039,15 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>51</v>
@@ -3141,17 +3062,15 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>42</v>
@@ -3176,13 +3095,11 @@
         <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>42</v>
@@ -3199,13 +3116,17 @@
       <c r="AD14" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE14" s="2"/>
+      <c r="AE14" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG14" s="2"/>
+      <c r="AG14" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH14" t="s" s="2">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>42</v>
@@ -3214,7 +3135,7 @@
         <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>42</v>
@@ -3222,11 +3143,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3239,13 +3160,13 @@
         <v>42</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>122</v>
@@ -3254,7 +3175,7 @@
         <v>123</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3318,7 +3239,7 @@
         <v>42</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>42</v>
@@ -3326,11 +3247,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3349,18 +3270,18 @@
         <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>42</v>
       </c>
@@ -3396,14 +3317,16 @@
         <v>42</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="AE16" s="2"/>
       <c r="AF16" t="s" s="2">
@@ -3417,50 +3340,52 @@
         <v>42</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>42</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3484,13 +3409,13 @@
         <v>42</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>42</v>
@@ -3507,15 +3432,11 @@
       <c r="AD17" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE17" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="AE17" s="2"/>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG17" s="2"/>
       <c r="AH17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3523,18 +3444,18 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>42</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3542,7 +3463,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>51</v>
@@ -3557,15 +3478,17 @@
         <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>42</v>
@@ -3590,13 +3513,13 @@
         <v>42</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>42</v>
@@ -3614,7 +3537,7 @@
         <v>42</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -3632,15 +3555,15 @@
         <v>42</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3651,7 +3574,7 @@
         <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
@@ -3663,13 +3586,13 @@
         <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3719,15 +3642,11 @@
       <c r="AD19" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE19" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="AE19" s="2"/>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG19" s="2"/>
       <c r="AH19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3738,7 +3657,7 @@
         <v>42</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>42</v>
@@ -3746,18 +3665,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>42</v>
@@ -3769,22 +3688,24 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>42</v>
@@ -3825,15 +3746,11 @@
       <c r="AD20" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE20" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="AE20" s="2"/>
       <c r="AF20" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG20" s="2"/>
       <c r="AH20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3844,7 +3761,7 @@
         <v>42</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>42</v>
@@ -3852,7 +3769,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3863,7 +3780,7 @@
         <v>51</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>42</v>
@@ -3872,19 +3789,23 @@
         <v>42</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3908,36 +3829,32 @@
         <v>42</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X21" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y21" t="s" s="2">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AE21" s="2"/>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG21" s="2"/>
       <c r="AH21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3945,10 +3862,10 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>42</v>
@@ -3956,40 +3873,38 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="C22" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I22" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="K22" s="2"/>
       <c r="L22" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>42</v>
@@ -4052,7 +3967,7 @@
         <v>42</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>42</v>
@@ -4060,7 +3975,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4071,7 +3986,7 @@
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>42</v>
@@ -4083,18 +3998,16 @@
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
       </c>
@@ -4153,52 +4066,52 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>161</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>42</v>
       </c>
@@ -4222,13 +4135,13 @@
         <v>42</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>42</v>
@@ -4257,18 +4170,18 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>170</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4276,7 +4189,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>51</v>
@@ -4288,27 +4201,29 @@
         <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>42</v>
@@ -4326,13 +4241,13 @@
         <v>42</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>42</v>
@@ -4349,15 +4264,11 @@
       <c r="AD25" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE25" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="AE25" s="2"/>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG25" s="2"/>
       <c r="AH25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4365,18 +4276,18 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>178</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4396,18 +4307,20 @@
         <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -4467,10 +4380,10 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>42</v>
@@ -4482,14 +4395,14 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>42</v>
@@ -4498,27 +4411,27 @@
         <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>67</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>42</v>
@@ -4571,10 +4484,10 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -4582,7 +4495,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4590,10 +4503,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F28" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4605,19 +4518,17 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4654,14 +4565,16 @@
         <v>42</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="AE28" s="2"/>
       <c r="AF28" t="s" s="2">
@@ -4675,10 +4588,10 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>42</v>
@@ -4686,17 +4599,15 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>51</v>
@@ -4711,14 +4622,20 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K29" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="L29" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4777,10 +4694,10 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>42</v>
@@ -4788,7 +4705,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4808,19 +4725,23 @@
         <v>42</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4879,52 +4800,52 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>68</v>
+        <v>209</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4948,13 +4869,13 @@
         <v>42</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
@@ -4983,18 +4904,18 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>42</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5014,29 +4935,25 @@
         <v>42</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>197</v>
+        <v>42</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>42</v>
@@ -5089,10 +5006,10 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>42</v>
@@ -5100,18 +5017,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>42</v>
@@ -5120,19 +5037,19 @@
         <v>42</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>203</v>
+        <v>94</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5193,10 +5110,10 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
@@ -5204,7 +5121,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5212,10 +5129,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
@@ -5227,24 +5144,26 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="N34" t="s" s="2">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>42</v>
@@ -5274,16 +5193,14 @@
         <v>42</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="AB34" s="2"/>
       <c r="AC34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="AE34" s="2"/>
       <c r="AF34" t="s" s="2">
@@ -5297,10 +5214,10 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -5308,15 +5225,17 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
@@ -5331,18 +5250,14 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="K35" s="2"/>
       <c r="L35" t="s" s="2">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>216</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5401,10 +5316,10 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -5412,7 +5327,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5432,23 +5347,19 @@
         <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5507,10 +5418,10 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>226</v>
+        <v>151</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>42</v>
@@ -5518,18 +5429,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>42</v>
@@ -5538,23 +5449,21 @@
         <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>228</v>
+        <v>92</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5613,10 +5522,10 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>42</v>
@@ -5624,7 +5533,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5632,7 +5541,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>51</v>
@@ -5647,24 +5556,26 @@
         <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N38" t="s" s="2">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>42</v>
@@ -5682,13 +5593,13 @@
         <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -5717,18 +5628,18 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>242</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5748,18 +5659,20 @@
         <v>42</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5819,10 +5732,10 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -5830,18 +5743,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
@@ -5850,27 +5763,27 @@
         <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>67</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>42</v>
@@ -5923,10 +5836,10 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5934,7 +5847,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5942,10 +5855,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F41" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>42</v>
@@ -5957,19 +5870,17 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -6006,14 +5917,16 @@
         <v>42</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AB41" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="AE41" s="2"/>
       <c r="AF41" t="s" s="2">
@@ -6027,10 +5940,10 @@
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>42</v>
@@ -6038,17 +5951,15 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>51</v>
@@ -6063,14 +5974,20 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K42" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="L42" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
       </c>
@@ -6129,10 +6046,10 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
@@ -6140,7 +6057,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6160,19 +6077,23 @@
         <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
       </c>
@@ -6231,52 +6152,54 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>67</v>
+        <v>232</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>68</v>
+        <v>233</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>69</v>
+        <v>234</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6323,11 +6246,15 @@
       <c r="AD44" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE44" s="2"/>
+      <c r="AE44" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG44" s="2"/>
+      <c r="AG44" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6335,18 +6262,18 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>64</v>
+        <v>238</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>42</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6366,29 +6293,27 @@
         <v>42</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>42</v>
@@ -6441,18 +6366,18 @@
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>42</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6466,7 +6391,7 @@
         <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>42</v>
@@ -6475,18 +6400,20 @@
         <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
       </c>
@@ -6545,18 +6472,18 @@
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>42</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6579,24 +6506,24 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>253</v>
+        <v>42</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>42</v>
@@ -6649,18 +6576,18 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>42</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6671,7 +6598,7 @@
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>42</v>
@@ -6683,17 +6610,17 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -6753,18 +6680,18 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>217</v>
+        <v>270</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>42</v>
+        <v>272</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6778,7 +6705,7 @@
         <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>42</v>
@@ -6787,20 +6714,16 @@
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>42</v>
       </c>
@@ -6847,11 +6770,15 @@
       <c r="AD49" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE49" s="2"/>
+      <c r="AE49" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG49" s="2"/>
+      <c r="AG49" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH49" t="s" s="2">
         <v>42</v>
       </c>
@@ -6859,10 +6786,10 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6870,7 +6797,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6890,23 +6817,19 @@
         <v>42</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>42</v>
       </c>
@@ -6965,10 +6888,10 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6976,18 +6899,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>42</v>
@@ -6996,23 +6919,21 @@
         <v>42</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>258</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>259</v>
+        <v>92</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>42</v>
       </c>
@@ -7059,15 +6980,11 @@
       <c r="AD51" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE51" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="AE51" s="2"/>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG51" s="2"/>
       <c r="AH51" t="s" s="2">
         <v>42</v>
       </c>
@@ -7075,18 +6992,18 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>263</v>
+        <v>42</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>264</v>
+        <v>151</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>265</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7106,20 +7023,22 @@
         <v>42</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="N52" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -7179,18 +7098,18 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>273</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7207,30 +7126,32 @@
         <v>42</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>275</v>
+        <v>67</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="P53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="Q53" t="s" s="2">
         <v>42</v>
       </c>
@@ -7250,13 +7171,13 @@
         <v>42</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>42</v>
+        <v>293</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>42</v>
@@ -7285,18 +7206,18 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>282</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7319,18 +7240,18 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7389,18 +7310,18 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>289</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7411,7 +7332,7 @@
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
@@ -7423,24 +7344,24 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>291</v>
+        <v>62</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>42</v>
+        <v>307</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>42</v>
@@ -7487,24 +7408,24 @@
       </c>
       <c r="AG55" s="2"/>
       <c r="AH55" t="s" s="2">
-        <v>42</v>
+        <v>308</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>297</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7527,22 +7448,26 @@
         <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>299</v>
+        <v>67</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>42</v>
+        <v>315</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>42</v>
@@ -7583,26 +7508,22 @@
       <c r="AD56" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE56" t="s" s="2">
+      <c r="AE56" s="2"/>
+      <c r="AF56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG56" s="2"/>
+      <c r="AH56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AF56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="AK56" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
@@ -7610,7 +7531,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7633,16 +7554,20 @@
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>62</v>
+        <v>318</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
       </c>
@@ -7666,13 +7591,11 @@
         <v>42</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>42</v>
@@ -7695,16 +7618,16 @@
       </c>
       <c r="AG57" s="2"/>
       <c r="AH57" t="s" s="2">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>64</v>
+        <v>324</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -7712,18 +7635,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>66</v>
+        <v>326</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>42</v>
@@ -7735,18 +7658,18 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>68</v>
+        <v>327</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
       </c>
@@ -7770,13 +7693,11 @@
         <v>42</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>42</v>
+        <v>330</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -7805,10 +7726,10 @@
         <v>42</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>42</v>
+        <v>331</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>64</v>
+        <v>332</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -7816,7 +7737,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7836,22 +7757,20 @@
         <v>42</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>305</v>
+        <v>101</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>42</v>
@@ -7911,10 +7830,10 @@
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -7922,7 +7841,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7933,85 +7852,85 @@
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="X60" s="2"/>
+      <c r="Y60" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG60" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="Q60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE60" s="2"/>
-      <c r="AF60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG60" s="2"/>
       <c r="AH60" t="s" s="2">
         <v>42</v>
       </c>
@@ -8019,10 +7938,10 @@
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -8030,7 +7949,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8050,20 +7969,22 @@
         <v>42</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="N61" t="s" s="2">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
@@ -8088,13 +8009,11 @@
         <v>42</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>42</v>
+        <v>353</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>42</v>
@@ -8123,10 +8042,10 @@
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -8134,7 +8053,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8145,7 +8064,7 @@
         <v>40</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>42</v>
@@ -8154,27 +8073,27 @@
         <v>42</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>81</v>
+        <v>357</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>42</v>
@@ -8215,22 +8134,26 @@
       <c r="AD62" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE62" s="2"/>
+      <c r="AE62" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG62" s="2"/>
+      <c r="AG62" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH62" t="s" s="2">
-        <v>333</v>
+        <v>42</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -8238,7 +8161,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8249,7 +8172,7 @@
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>42</v>
@@ -8258,29 +8181,27 @@
         <v>42</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>104</v>
+        <v>364</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>340</v>
+        <v>42</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>42</v>
@@ -8321,11 +8242,15 @@
       <c r="AD63" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE63" s="2"/>
+      <c r="AE63" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG63" s="2"/>
+      <c r="AG63" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8333,10 +8258,10 @@
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8344,7 +8269,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8367,19 +8292,19 @@
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>147</v>
+        <v>371</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -8404,11 +8329,13 @@
         <v>42</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X64" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y64" t="s" s="2">
-        <v>347</v>
+        <v>42</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>42</v>
@@ -8425,22 +8352,26 @@
       <c r="AD64" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE64" s="2"/>
+      <c r="AE64" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG64" s="2"/>
+      <c r="AG64" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH64" t="s" s="2">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>125</v>
+        <v>377</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8448,11 +8379,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>351</v>
+        <v>42</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8471,18 +8402,16 @@
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>352</v>
+        <v>102</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>353</v>
+        <v>150</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>354</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>42</v>
       </c>
@@ -8506,11 +8435,13 @@
         <v>42</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X65" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y65" t="s" s="2">
-        <v>355</v>
+        <v>42</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>42</v>
@@ -8539,10 +8470,10 @@
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>356</v>
+        <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>357</v>
+        <v>151</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -8550,18 +8481,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>42</v>
@@ -8573,18 +8504,18 @@
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>359</v>
+        <v>92</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>42</v>
       </c>
@@ -8643,10 +8574,10 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>362</v>
+        <v>42</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>363</v>
+        <v>151</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8654,43 +8585,41 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>365</v>
+        <v>122</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>42</v>
       </c>
@@ -8714,11 +8643,13 @@
         <v>42</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="X67" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y67" t="s" s="2">
-        <v>370</v>
+        <v>42</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>42</v>
@@ -8735,15 +8666,11 @@
       <c r="AD67" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE67" t="s" s="2">
-        <v>364</v>
-      </c>
+      <c r="AE67" s="2"/>
       <c r="AF67" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG67" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG67" s="2"/>
       <c r="AH67" t="s" s="2">
         <v>42</v>
       </c>
@@ -8751,10 +8678,10 @@
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>371</v>
+        <v>42</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>372</v>
+        <v>88</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -8762,7 +8689,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8785,13 +8712,13 @@
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>53</v>
+        <v>385</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>62</v>
+        <v>386</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>63</v>
+        <v>387</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8847,16 +8774,16 @@
       </c>
       <c r="AG68" s="2"/>
       <c r="AH68" t="s" s="2">
-        <v>42</v>
+        <v>388</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>42</v>
+        <v>389</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>64</v>
+        <v>390</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
@@ -8864,18 +8791,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>42</v>
@@ -8887,17 +8814,15 @@
         <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>67</v>
+        <v>385</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>68</v>
+        <v>392</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -8951,16 +8876,16 @@
       </c>
       <c r="AG69" s="2"/>
       <c r="AH69" t="s" s="2">
-        <v>42</v>
+        <v>388</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>42</v>
+        <v>389</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>64</v>
+        <v>394</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>42</v>
@@ -8968,7 +8893,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8979,7 +8904,7 @@
         <v>40</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>42</v>
@@ -8988,22 +8913,22 @@
         <v>42</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>182</v>
+        <v>396</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>183</v>
+        <v>397</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>184</v>
+        <v>398</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>185</v>
+        <v>399</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>42</v>
@@ -9028,13 +8953,13 @@
         <v>42</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>42</v>
+        <v>401</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>42</v>
@@ -9063,10 +8988,10 @@
         <v>42</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>187</v>
+        <v>402</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>188</v>
+        <v>332</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>42</v>
@@ -9074,7 +8999,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9094,22 +9019,20 @@
         <v>42</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>134</v>
+        <v>404</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>228</v>
+        <v>405</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>231</v>
+        <v>407</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>42</v>
@@ -9169,10 +9092,10 @@
         <v>42</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>233</v>
+        <v>408</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>42</v>
@@ -9180,7 +9103,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9203,20 +9126,16 @@
         <v>42</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>42</v>
       </c>
@@ -9240,11 +9159,13 @@
         <v>42</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X72" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y72" t="s" s="2">
-        <v>382</v>
+        <v>42</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>42</v>
@@ -9273,10 +9194,10 @@
         <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>42</v>
@@ -9284,7 +9205,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9304,21 +9225,23 @@
         <v>42</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>42</v>
       </c>
@@ -9366,13 +9289,13 @@
         <v>42</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>42</v>
@@ -9381,10 +9304,10 @@
         <v>42</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>42</v>
@@ -9392,7 +9315,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9403,7 +9326,7 @@
         <v>40</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>42</v>
@@ -9415,17 +9338,15 @@
         <v>42</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>393</v>
+        <v>53</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>394</v>
+        <v>102</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>42</v>
@@ -9473,15 +9394,11 @@
       <c r="AD74" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE74" t="s" s="2">
-        <v>392</v>
-      </c>
+      <c r="AE74" s="2"/>
       <c r="AF74" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG74" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG74" s="2"/>
       <c r="AH74" t="s" s="2">
         <v>42</v>
       </c>
@@ -9489,10 +9406,10 @@
         <v>42</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>397</v>
+        <v>42</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>398</v>
+        <v>151</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>42</v>
@@ -9500,18 +9417,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>42</v>
@@ -9523,20 +9440,18 @@
         <v>42</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>400</v>
+        <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>401</v>
+        <v>92</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>402</v>
+        <v>153</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>42</v>
       </c>
@@ -9583,26 +9498,22 @@
       <c r="AD75" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE75" t="s" s="2">
-        <v>399</v>
-      </c>
+      <c r="AE75" s="2"/>
       <c r="AF75" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG75" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG75" s="2"/>
       <c r="AH75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>405</v>
+        <v>42</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>406</v>
+        <v>42</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>407</v>
+        <v>151</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>42</v>
@@ -9610,38 +9521,40 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M76" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>42</v>
@@ -9704,7 +9617,7 @@
         <v>42</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>42</v>
@@ -9712,18 +9625,18 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>42</v>
@@ -9738,21 +9651,23 @@
         <v>67</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>68</v>
+        <v>424</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>69</v>
+        <v>425</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>42</v>
+        <v>428</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>42</v>
@@ -9770,13 +9685,13 @@
         <v>42</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>42</v>
+        <v>429</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>42</v>
+        <v>430</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>42</v>
@@ -9805,10 +9720,10 @@
         <v>42</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>64</v>
+        <v>431</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>42</v>
@@ -9816,40 +9731,38 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>411</v>
+        <v>42</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>67</v>
+        <v>433</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>153</v>
+        <v>434</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>42</v>
@@ -9912,7 +9825,7 @@
         <v>42</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>125</v>
+        <v>436</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>42</v>
@@ -9920,7 +9833,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9931,7 +9844,7 @@
         <v>40</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>42</v>
@@ -9940,19 +9853,23 @@
         <v>42</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>414</v>
+        <v>371</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>42</v>
       </c>
@@ -9999,22 +9916,26 @@
       <c r="AD79" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE79" s="2"/>
+      <c r="AE79" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG79" s="2"/>
+      <c r="AG79" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH79" t="s" s="2">
-        <v>417</v>
+        <v>42</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>42</v>
@@ -10022,7 +9943,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10045,13 +9966,13 @@
         <v>42</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>414</v>
+        <v>53</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>421</v>
+        <v>102</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>422</v>
+        <v>150</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10107,16 +10028,16 @@
       </c>
       <c r="AG80" s="2"/>
       <c r="AH80" t="s" s="2">
-        <v>417</v>
+        <v>42</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>418</v>
+        <v>42</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>423</v>
+        <v>151</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>42</v>
@@ -10124,18 +10045,18 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>42</v>
@@ -10147,20 +10068,18 @@
         <v>42</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>425</v>
+        <v>92</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>426</v>
+        <v>153</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>42</v>
       </c>
@@ -10184,13 +10103,13 @@
         <v>42</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>429</v>
+        <v>42</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>430</v>
+        <v>42</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>42</v>
@@ -10219,10 +10138,10 @@
         <v>42</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>431</v>
+        <v>42</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>357</v>
+        <v>151</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>42</v>
@@ -10230,41 +10149,41 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>433</v>
+        <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>434</v>
+        <v>122</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>42</v>
       </c>
@@ -10326,7 +10245,7 @@
         <v>42</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>437</v>
+        <v>88</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>42</v>
@@ -10334,7 +10253,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10342,7 +10261,7 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>51</v>
@@ -10354,19 +10273,21 @@
         <v>42</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+      <c r="N83" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>42</v>
       </c>
@@ -10390,13 +10311,13 @@
         <v>42</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>42</v>
@@ -10419,24 +10340,24 @@
       </c>
       <c r="AG83" s="2"/>
       <c r="AH83" t="s" s="2">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>418</v>
+        <v>214</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>441</v>
+        <v>215</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>42</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10447,7 +10368,7 @@
         <v>40</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>42</v>
@@ -10459,19 +10380,19 @@
         <v>52</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>42</v>
@@ -10519,15 +10440,11 @@
       <c r="AD84" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE84" t="s" s="2">
-        <v>442</v>
-      </c>
+      <c r="AE84" s="2"/>
       <c r="AF84" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG84" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG84" s="2"/>
       <c r="AH84" t="s" s="2">
         <v>42</v>
       </c>
@@ -10535,10 +10452,10 @@
         <v>42</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>42</v>
@@ -10546,7 +10463,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10569,16 +10486,20 @@
         <v>42</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>62</v>
+        <v>459</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>42</v>
       </c>
@@ -10602,13 +10523,11 @@
         <v>42</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X85" s="2"/>
       <c r="Y85" t="s" s="2">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>42</v>
@@ -10631,16 +10550,16 @@
       </c>
       <c r="AG85" s="2"/>
       <c r="AH85" t="s" s="2">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>64</v>
+        <v>324</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>42</v>
@@ -10648,11 +10567,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -10671,18 +10590,20 @@
         <v>42</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>67</v>
+        <v>371</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>68</v>
+        <v>462</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>69</v>
+        <v>373</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>42</v>
       </c>
@@ -10741,10 +10662,10 @@
         <v>42</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>42</v>
+        <v>377</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>64</v>
+        <v>378</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>42</v>
@@ -10752,40 +10673,38 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>411</v>
+        <v>42</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>42</v>
@@ -10848,7 +10767,7 @@
         <v>42</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>42</v>
@@ -10856,18 +10775,18 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>42</v>
@@ -10879,26 +10798,24 @@
         <v>42</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>453</v>
+        <v>92</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>454</v>
+        <v>153</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>457</v>
+        <v>42</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>42</v>
@@ -10916,13 +10833,13 @@
         <v>42</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>458</v>
+        <v>42</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>459</v>
+        <v>42</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>42</v>
@@ -10951,10 +10868,10 @@
         <v>42</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>460</v>
+        <v>151</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>42</v>
@@ -10962,38 +10879,40 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>462</v>
+        <v>91</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>463</v>
+        <v>122</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>42</v>
@@ -11056,7 +10975,7 @@
         <v>42</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>465</v>
+        <v>88</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>42</v>
@@ -11075,7 +10994,7 @@
         <v>40</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>42</v>
@@ -11084,23 +11003,19 @@
         <v>42</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>467</v>
+        <v>386</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>42</v>
       </c>
@@ -11147,26 +11062,22 @@
       <c r="AD90" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE90" t="s" s="2">
-        <v>466</v>
-      </c>
+      <c r="AE90" s="2"/>
       <c r="AF90" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG90" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG90" s="2"/>
       <c r="AH90" t="s" s="2">
-        <v>42</v>
+        <v>388</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>470</v>
+        <v>389</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>471</v>
+        <v>390</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>42</v>
@@ -11174,7 +11085,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11197,13 +11108,13 @@
         <v>42</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>53</v>
+        <v>385</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>62</v>
+        <v>392</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>63</v>
+        <v>393</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11259,16 +11170,16 @@
       </c>
       <c r="AG91" s="2"/>
       <c r="AH91" t="s" s="2">
-        <v>42</v>
+        <v>388</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>42</v>
+        <v>389</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>64</v>
+        <v>394</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>42</v>
@@ -11276,18 +11187,18 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>42</v>
@@ -11299,18 +11210,20 @@
         <v>42</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>68</v>
+        <v>396</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>69</v>
+        <v>397</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>42</v>
       </c>
@@ -11334,13 +11247,13 @@
         <v>42</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>42</v>
+        <v>401</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>42</v>
@@ -11369,10 +11282,10 @@
         <v>42</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>42</v>
+        <v>402</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>64</v>
+        <v>332</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>42</v>
@@ -11380,41 +11293,41 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>411</v>
+        <v>42</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>67</v>
+        <v>404</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>153</v>
+        <v>405</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>42</v>
       </c>
@@ -11476,7 +11389,7 @@
         <v>42</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>125</v>
+        <v>408</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>42</v>
@@ -11484,7 +11397,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11492,7 +11405,7 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>51</v>
@@ -11504,21 +11417,19 @@
         <v>42</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>476</v>
+        <v>410</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>477</v>
+        <v>411</v>
       </c>
       <c r="M94" s="2"/>
-      <c r="N94" t="s" s="2">
-        <v>237</v>
-      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>42</v>
       </c>
@@ -11542,13 +11453,13 @@
         <v>42</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>42</v>
@@ -11571,1165 +11482,23 @@
       </c>
       <c r="AG94" s="2"/>
       <c r="AH94" t="s" s="2">
-        <v>478</v>
+        <v>42</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>240</v>
+        <v>389</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>241</v>
+        <v>412</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE95" s="2"/>
-      <c r="AF95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG95" s="2"/>
-      <c r="AH95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X96" s="2"/>
-      <c r="Y96" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE96" s="2"/>
-      <c r="AF96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG96" s="2"/>
-      <c r="AH96" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE97" s="2"/>
-      <c r="AF97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG97" s="2"/>
-      <c r="AH97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE98" s="2"/>
-      <c r="AF98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG98" s="2"/>
-      <c r="AH98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE99" s="2"/>
-      <c r="AF99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG99" s="2"/>
-      <c r="AH99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE100" s="2"/>
-      <c r="AF100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG100" s="2"/>
-      <c r="AH100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE101" s="2"/>
-      <c r="AF101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG101" s="2"/>
-      <c r="AH101" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE102" s="2"/>
-      <c r="AF102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG102" s="2"/>
-      <c r="AH102" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE103" s="2"/>
-      <c r="AF103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG103" s="2"/>
-      <c r="AH103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE104" s="2"/>
-      <c r="AF104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG104" s="2"/>
-      <c r="AH104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE105" s="2"/>
-      <c r="AF105" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG105" s="2"/>
-      <c r="AH105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AL105" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL105">
+  <autoFilter ref="A1:AL94">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12739,7 +11508,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI104">
+  <conditionalFormatting sqref="A2:AI93">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/mcode/shr-core-BodyWeight.xlsx
+++ b/docs/mcode/shr-core-BodyWeight.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$87</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3034" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="433">
   <si>
     <t>Path</t>
   </si>
@@ -150,7 +150,7 @@
     <t>shr-core-BodyWeight</t>
   </si>
   <si>
-    <t>The mass or quantity of heaviness of an individual. This LOINC code should not be used for fetal body weight estimates.</t>
+    <t>Data structure for recording the body weight, defined as the mass or quantity of heaviness of the individual.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as lab reports, etc.</t>
@@ -699,6 +699,9 @@
   </si>
   <si>
     <t>Fixed_29463-7</t>
+  </si>
+  <si>
+    <t>Body weight</t>
   </si>
   <si>
     <t>Observation.code.coding.id</t>
@@ -871,132 +874,16 @@
 </t>
   </si>
   <si>
-    <t>kg</t>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyWeightUnitsVS</t>
   </si>
   <si>
     <t>Observation.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.valueQuantity.id</t>
-  </si>
-  <si>
-    <t>Observation.valueQuantity.extension</t>
-  </si>
-  <si>
-    <t>Observation.valueQuantity.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>Observation.valueQuantity.comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>This is labeled as "Is Modifier" because the comparator modifies the interpretation of the value significantly. If there is no comparator, then there is no modification of the value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>Observation.valueQuantity.unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>Observation.valueQuantity.system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://unitsofmeasure.org"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.valueQuantity.code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="kg"/&gt;</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1418,9 +1305,6 @@
   </si>
   <si>
     <t>Actual component result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
     <t>Normally, an observation will have either a value or a set of related observations. A few observations (e.g. Apgar score) may have both a value and related observations (for an Apgar score, the observations from which the measure is derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.   For boolean values use valueCodeableConcept and select codes from &lt;http://hl7.org/fhir/ValueSet/v2-0136&gt; (These "yes/no" concepts can be mapped to the display name "true/false" or other mutually exclusive terms that may be needed").  The element, Observation.value[x], has a variable name depending on the type as follows: valueQuantity, valueCodeableConcept, valueRatio, valueChoice, valuePeriod, valueSampleData, or valueString (The name format is "'value' + the type name" with a capital on the first letter of the type).</t>
@@ -1620,7 +1504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM94"/>
+  <dimension ref="A1:AM87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1652,7 +1536,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="52.97265625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="47.11328125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="70.84375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -5252,9 +5136,11 @@
       <c r="J35" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K35" s="2"/>
+      <c r="K35" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="L35" t="s" s="2">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5327,7 +5213,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5429,7 +5315,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5533,7 +5419,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5575,7 +5461,7 @@
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>42</v>
@@ -5639,7 +5525,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5743,7 +5629,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5783,7 +5669,7 @@
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>42</v>
@@ -5847,7 +5733,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5951,7 +5837,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6057,7 +5943,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6163,7 +6049,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6186,19 +6072,19 @@
         <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
@@ -6247,7 +6133,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6262,18 +6148,18 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6296,17 +6182,17 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>42</v>
@@ -6366,18 +6252,18 @@
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6400,19 +6286,19 @@
         <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
@@ -6472,18 +6358,18 @@
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6506,16 +6392,16 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6576,18 +6462,18 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6610,17 +6496,17 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -6680,18 +6566,18 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6699,7 +6585,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>51</v>
@@ -6714,13 +6600,13 @@
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6747,13 +6633,11 @@
         <v>42</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>42</v>
@@ -6771,10 +6655,10 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>51</v>
@@ -6797,7 +6681,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6820,16 +6704,20 @@
         <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>102</v>
+        <v>281</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
       </c>
@@ -6853,13 +6741,11 @@
         <v>42</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X50" s="2"/>
       <c r="Y50" t="s" s="2">
-        <v>42</v>
+        <v>285</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>42</v>
@@ -6882,16 +6768,16 @@
       </c>
       <c r="AG50" s="2"/>
       <c r="AH50" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6899,18 +6785,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>90</v>
+        <v>289</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>42</v>
@@ -6922,18 +6808,18 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>92</v>
+        <v>290</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
       </c>
@@ -6957,13 +6843,11 @@
         <v>42</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X51" s="2"/>
       <c r="Y51" t="s" s="2">
-        <v>42</v>
+        <v>293</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>42</v>
@@ -6992,10 +6876,10 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>151</v>
+        <v>295</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -7003,7 +6887,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7023,22 +6907,20 @@
         <v>42</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>280</v>
+        <v>101</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -7098,10 +6980,10 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -7109,7 +6991,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7120,85 +7002,85 @@
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="X53" s="2"/>
+      <c r="Y53" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG53" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="Q53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE53" s="2"/>
-      <c r="AF53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG53" s="2"/>
       <c r="AH53" t="s" s="2">
         <v>42</v>
       </c>
@@ -7206,10 +7088,10 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -7217,7 +7099,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7237,20 +7119,22 @@
         <v>42</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N54" t="s" s="2">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
@@ -7275,13 +7159,11 @@
         <v>42</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>42</v>
@@ -7310,10 +7192,10 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
@@ -7321,7 +7203,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7332,7 +7214,7 @@
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
@@ -7341,27 +7223,27 @@
         <v>42</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>307</v>
+        <v>42</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>42</v>
@@ -7402,22 +7284,26 @@
       <c r="AD55" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE55" s="2"/>
+      <c r="AE55" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG55" s="2"/>
+      <c r="AG55" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH55" t="s" s="2">
-        <v>308</v>
+        <v>42</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -7425,7 +7311,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7436,7 +7322,7 @@
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>42</v>
@@ -7445,29 +7331,27 @@
         <v>42</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>67</v>
+        <v>327</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>315</v>
+        <v>42</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>42</v>
@@ -7508,11 +7392,15 @@
       <c r="AD56" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE56" s="2"/>
+      <c r="AE56" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG56" s="2"/>
+      <c r="AG56" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH56" t="s" s="2">
         <v>42</v>
       </c>
@@ -7520,10 +7408,10 @@
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
@@ -7531,7 +7419,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7554,19 +7442,19 @@
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>115</v>
+        <v>334</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
@@ -7591,11 +7479,13 @@
         <v>42</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>322</v>
+        <v>42</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>42</v>
@@ -7612,22 +7502,26 @@
       <c r="AD57" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE57" s="2"/>
+      <c r="AE57" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG57" s="2"/>
+      <c r="AG57" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH57" t="s" s="2">
-        <v>323</v>
+        <v>42</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>42</v>
+        <v>339</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>88</v>
+        <v>340</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -7635,11 +7529,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7658,18 +7552,16 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>327</v>
+        <v>102</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>328</v>
+        <v>150</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>329</v>
-      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>42</v>
       </c>
@@ -7693,11 +7585,13 @@
         <v>42</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X58" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y58" t="s" s="2">
-        <v>330</v>
+        <v>42</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -7726,10 +7620,10 @@
         <v>42</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>331</v>
+        <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>332</v>
+        <v>151</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -7737,18 +7631,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>42</v>
@@ -7760,18 +7654,18 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>334</v>
+        <v>92</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>42</v>
       </c>
@@ -7830,10 +7724,10 @@
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>337</v>
+        <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>338</v>
+        <v>151</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -7841,43 +7735,41 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>42</v>
+        <v>345</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>340</v>
+        <v>122</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>42</v>
       </c>
@@ -7901,11 +7793,13 @@
         <v>42</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="X60" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y60" t="s" s="2">
-        <v>345</v>
+        <v>42</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>42</v>
@@ -7922,15 +7816,11 @@
       <c r="AD60" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE60" t="s" s="2">
-        <v>339</v>
-      </c>
+      <c r="AE60" s="2"/>
       <c r="AF60" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG60" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG60" s="2"/>
       <c r="AH60" t="s" s="2">
         <v>42</v>
       </c>
@@ -7938,10 +7828,10 @@
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>346</v>
+        <v>42</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>347</v>
+        <v>88</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -7949,7 +7839,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7972,7 +7862,7 @@
         <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>115</v>
+        <v>348</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>349</v>
@@ -7980,12 +7870,8 @@
       <c r="L61" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>352</v>
-      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>42</v>
       </c>
@@ -8009,11 +7895,13 @@
         <v>42</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X61" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y61" t="s" s="2">
-        <v>353</v>
+        <v>42</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>42</v>
@@ -8036,16 +7924,16 @@
       </c>
       <c r="AG61" s="2"/>
       <c r="AH61" t="s" s="2">
-        <v>42</v>
+        <v>351</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -8053,7 +7941,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8064,7 +7952,7 @@
         <v>40</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>42</v>
@@ -8076,17 +7964,15 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>42</v>
@@ -8134,26 +8020,22 @@
       <c r="AD62" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE62" t="s" s="2">
-        <v>356</v>
-      </c>
+      <c r="AE62" s="2"/>
       <c r="AF62" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG62" s="2"/>
       <c r="AH62" t="s" s="2">
-        <v>42</v>
+        <v>351</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -8161,7 +8043,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8172,7 +8054,7 @@
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>42</v>
@@ -8184,18 +8066,20 @@
         <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>364</v>
+        <v>115</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8219,13 +8103,13 @@
         <v>42</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>42</v>
+        <v>363</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>42</v>
+        <v>364</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>42</v>
@@ -8242,15 +8126,11 @@
       <c r="AD63" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE63" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="AE63" s="2"/>
       <c r="AF63" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG63" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG63" s="2"/>
       <c r="AH63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8258,10 +8138,10 @@
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8269,7 +8149,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8292,19 +8172,17 @@
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -8352,26 +8230,22 @@
       <c r="AD64" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE64" t="s" s="2">
-        <v>370</v>
-      </c>
+      <c r="AE64" s="2"/>
       <c r="AF64" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG64" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG64" s="2"/>
       <c r="AH64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>376</v>
+        <v>42</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>377</v>
+        <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8379,7 +8253,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8402,13 +8276,13 @@
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>102</v>
+        <v>373</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>150</v>
+        <v>374</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8470,10 +8344,10 @@
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>42</v>
+        <v>352</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>151</v>
+        <v>375</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -8481,18 +8355,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>42</v>
@@ -8501,21 +8375,23 @@
         <v>42</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>91</v>
+        <v>334</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>92</v>
+        <v>377</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>153</v>
+        <v>378</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>42</v>
       </c>
@@ -8562,11 +8438,15 @@
       <c r="AD66" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE66" s="2"/>
+      <c r="AE66" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG66" s="2"/>
+      <c r="AG66" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH66" t="s" s="2">
         <v>42</v>
       </c>
@@ -8574,10 +8454,10 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>42</v>
+        <v>381</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>151</v>
+        <v>382</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8585,40 +8465,38 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>382</v>
+        <v>42</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>42</v>
@@ -8681,7 +8559,7 @@
         <v>42</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -8693,14 +8571,14 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>42</v>
@@ -8712,15 +8590,17 @@
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>385</v>
+        <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>386</v>
+        <v>92</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>42</v>
@@ -8774,16 +8654,16 @@
       </c>
       <c r="AG68" s="2"/>
       <c r="AH68" t="s" s="2">
-        <v>388</v>
+        <v>42</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>389</v>
+        <v>42</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>390</v>
+        <v>151</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
@@ -8791,38 +8671,40 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>42</v>
+        <v>345</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>385</v>
+        <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>392</v>
+        <v>122</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -8876,16 +8758,16 @@
       </c>
       <c r="AG69" s="2"/>
       <c r="AH69" t="s" s="2">
-        <v>388</v>
+        <v>42</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>389</v>
+        <v>42</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>394</v>
+        <v>88</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>42</v>
@@ -8893,7 +8775,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8916,26 +8798,26 @@
         <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>42</v>
+        <v>391</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>42</v>
@@ -8953,13 +8835,13 @@
         <v>42</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>42</v>
@@ -8988,10 +8870,10 @@
         <v>42</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>402</v>
+        <v>88</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>332</v>
+        <v>394</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>42</v>
@@ -8999,7 +8881,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9007,7 +8889,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>51</v>
@@ -9022,18 +8904,16 @@
         <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="M71" s="2"/>
-      <c r="N71" t="s" s="2">
-        <v>407</v>
-      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>42</v>
       </c>
@@ -9095,7 +8975,7 @@
         <v>42</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>42</v>
@@ -9103,7 +8983,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9114,7 +8994,7 @@
         <v>40</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>42</v>
@@ -9123,19 +9003,23 @@
         <v>42</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>101</v>
+        <v>334</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>42</v>
       </c>
@@ -9182,11 +9066,15 @@
       <c r="AD72" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE72" s="2"/>
+      <c r="AE72" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG72" s="2"/>
+      <c r="AG72" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH72" t="s" s="2">
         <v>42</v>
       </c>
@@ -9194,10 +9082,10 @@
         <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>42</v>
@@ -9205,7 +9093,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9216,7 +9104,7 @@
         <v>40</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>42</v>
@@ -9225,23 +9113,19 @@
         <v>42</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>371</v>
+        <v>53</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>414</v>
+        <v>102</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>42</v>
       </c>
@@ -9288,15 +9172,11 @@
       <c r="AD73" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE73" t="s" s="2">
-        <v>413</v>
-      </c>
+      <c r="AE73" s="2"/>
       <c r="AF73" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG73" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG73" s="2"/>
       <c r="AH73" t="s" s="2">
         <v>42</v>
       </c>
@@ -9304,10 +9184,10 @@
         <v>42</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>418</v>
+        <v>42</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>419</v>
+        <v>151</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>42</v>
@@ -9315,18 +9195,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>42</v>
@@ -9338,15 +9218,17 @@
         <v>42</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>42</v>
@@ -9417,11 +9299,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>90</v>
+        <v>345</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -9434,7 +9316,7 @@
         <v>42</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>42</v>
@@ -9443,10 +9325,10 @@
         <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>153</v>
+        <v>346</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>94</v>
@@ -9513,7 +9395,7 @@
         <v>42</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>42</v>
@@ -9521,41 +9403,41 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>382</v>
+        <v>42</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I76" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I76" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J76" t="s" s="2">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>122</v>
+        <v>410</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>42</v>
       </c>
@@ -9579,13 +9461,13 @@
         <v>42</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>42</v>
@@ -9608,24 +9490,24 @@
       </c>
       <c r="AG76" s="2"/>
       <c r="AH76" t="s" s="2">
-        <v>42</v>
+        <v>412</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>42</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9645,29 +9527,29 @@
         <v>42</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>67</v>
+        <v>414</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>425</v>
+        <v>277</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>428</v>
+        <v>42</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>42</v>
@@ -9685,13 +9567,13 @@
         <v>42</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>429</v>
+        <v>42</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>430</v>
+        <v>42</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>42</v>
@@ -9720,10 +9602,10 @@
         <v>42</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>88</v>
+        <v>418</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>42</v>
@@ -9731,7 +9613,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9739,7 +9621,7 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>51</v>
@@ -9754,16 +9636,20 @@
         <v>42</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>433</v>
+        <v>115</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
       </c>
@@ -9787,13 +9673,11 @@
         <v>42</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X78" s="2"/>
       <c r="Y78" t="s" s="2">
-        <v>42</v>
+        <v>285</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>42</v>
@@ -9816,16 +9700,16 @@
       </c>
       <c r="AG78" s="2"/>
       <c r="AH78" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>436</v>
+        <v>287</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>42</v>
@@ -9833,7 +9717,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9844,7 +9728,7 @@
         <v>40</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>42</v>
@@ -9853,22 +9737,22 @@
         <v>42</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>371</v>
+        <v>334</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>439</v>
+        <v>336</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>416</v>
+        <v>337</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>440</v>
+        <v>338</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>42</v>
@@ -9916,15 +9800,11 @@
       <c r="AD79" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE79" t="s" s="2">
-        <v>437</v>
-      </c>
+      <c r="AE79" s="2"/>
       <c r="AF79" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG79" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG79" s="2"/>
       <c r="AH79" t="s" s="2">
         <v>42</v>
       </c>
@@ -9932,10 +9812,10 @@
         <v>42</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>441</v>
+        <v>340</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>442</v>
+        <v>341</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>42</v>
@@ -9943,7 +9823,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10045,7 +9925,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10149,11 +10029,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10178,7 +10058,7 @@
         <v>122</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>94</v>
@@ -10253,7 +10133,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10261,7 +10141,7 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>51</v>
@@ -10273,21 +10153,19 @@
         <v>42</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>115</v>
+        <v>348</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>447</v>
+        <v>349</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>448</v>
+        <v>350</v>
       </c>
       <c r="M83" s="2"/>
-      <c r="N83" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>42</v>
       </c>
@@ -10311,13 +10189,13 @@
         <v>42</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>42</v>
@@ -10340,24 +10218,24 @@
       </c>
       <c r="AG83" s="2"/>
       <c r="AH83" t="s" s="2">
-        <v>449</v>
+        <v>351</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>214</v>
+        <v>352</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>215</v>
+        <v>353</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>216</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10377,23 +10255,19 @@
         <v>42</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>451</v>
+        <v>348</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>452</v>
+        <v>355</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>42</v>
       </c>
@@ -10446,16 +10320,16 @@
       </c>
       <c r="AG84" s="2"/>
       <c r="AH84" t="s" s="2">
-        <v>42</v>
+        <v>351</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>456</v>
+        <v>352</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>457</v>
+        <v>357</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>42</v>
@@ -10463,7 +10337,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10489,16 +10363,16 @@
         <v>115</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>459</v>
+        <v>359</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>460</v>
+        <v>361</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>42</v>
@@ -10523,11 +10397,13 @@
         <v>42</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X85" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="Y85" t="s" s="2">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>42</v>
@@ -10550,16 +10426,16 @@
       </c>
       <c r="AG85" s="2"/>
       <c r="AH85" t="s" s="2">
-        <v>323</v>
+        <v>42</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>88</v>
+        <v>365</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>42</v>
@@ -10567,7 +10443,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10578,7 +10454,7 @@
         <v>40</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>42</v>
@@ -10590,19 +10466,17 @@
         <v>42</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>462</v>
+        <v>368</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>42</v>
@@ -10662,10 +10536,10 @@
         <v>42</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>377</v>
+        <v>42</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>42</v>
@@ -10673,7 +10547,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10696,13 +10570,13 @@
         <v>42</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>102</v>
+        <v>373</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>150</v>
+        <v>374</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10764,741 +10638,17 @@
         <v>42</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>42</v>
+        <v>352</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>151</v>
+        <v>375</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE88" s="2"/>
-      <c r="AF88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG88" s="2"/>
-      <c r="AH88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE89" s="2"/>
-      <c r="AF89" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG89" s="2"/>
-      <c r="AH89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE90" s="2"/>
-      <c r="AF90" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG90" s="2"/>
-      <c r="AH90" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE91" s="2"/>
-      <c r="AF91" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG91" s="2"/>
-      <c r="AH91" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE92" s="2"/>
-      <c r="AF92" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG92" s="2"/>
-      <c r="AH92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE93" s="2"/>
-      <c r="AF93" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG93" s="2"/>
-      <c r="AH93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE94" s="2"/>
-      <c r="AF94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG94" s="2"/>
-      <c r="AH94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AL94" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL94">
+  <autoFilter ref="A1:AL87">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11508,7 +10658,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI93">
+  <conditionalFormatting sqref="A2:AI86">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
